--- a/NIFTY/Ratio analysis.xlsx
+++ b/NIFTY/Ratio analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Market value ratios</t>
   </si>
@@ -214,7 +214,67 @@
     <t>Sales/Assets</t>
   </si>
   <si>
-    <t>Other</t>
+    <t xml:space="preserve">basic earning power (BEP) </t>
+  </si>
+  <si>
+    <t>The basic earning power (BEP) shows the earning power of the company’s assets before taxes and debt service.</t>
+  </si>
+  <si>
+    <t>It is useful for comparing companies that otherwise could not be compared because of different tax situations and different degrees of financial leverage.</t>
+  </si>
+  <si>
+    <t>This ratio is often used as a measure of the effectiveness of operations.</t>
+  </si>
+  <si>
+    <t>EBIT/Total assets</t>
+  </si>
+  <si>
+    <t>Book value per share</t>
+  </si>
+  <si>
+    <t>The book value per share measures common stockholders’ equity determined on a per-share basis and is an indication of how the investors view the value of the company’s assets</t>
+  </si>
+  <si>
+    <t>If the market value per share is higher than the book value per share, then the investor is willing to pay a premium over the book value to acquire the company’s assets.</t>
+  </si>
+  <si>
+    <t>comman equity/shares outstanding</t>
+  </si>
+  <si>
+    <t>Cash flow per share</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>The current ratio indicates the extent to which current liabilities can be “cov_x0002_ered” by current assets</t>
+  </si>
+  <si>
+    <t>The current ratio indicates the extent to which current liabilities can be “covered” by current assets.</t>
+  </si>
+  <si>
+    <t>current assets/current liblities</t>
+  </si>
+  <si>
+    <t>The current yield, also known as dividend yield, is a measure of an investment’s return. The higher the current yield, the higher the return on the investment.</t>
+  </si>
+  <si>
+    <t>Typically, only profitable companies pay out dividends; therefore, investors often view companies that have paid out significant dividends for an extended period of time as a less risky investment.</t>
+  </si>
+  <si>
+    <t>Divident per share/Price per share</t>
+  </si>
+  <si>
+    <t>total debt /total assets</t>
+  </si>
+  <si>
+    <t>The dividend payout ratio shows the percentage of earnings paid to sharehold_x0002_ers in dividends and how well earnings support the dividend payments</t>
+  </si>
+  <si>
+    <t>s. More mature companies tend to have a higher payout ratio compared to growth companies. This is because growth companies can provide a higher return on investment by using the cash (dividend) to invest in the growth of the company</t>
+  </si>
+  <si>
+    <t>Annual Divident per share/Earnings per share</t>
   </si>
 </sst>
 </file>
@@ -231,7 +291,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,14 +651,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,258 +699,318 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>64</v>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
